--- a/biology/Zoologie/Drepanepteryx_phalaenoides/Drepanepteryx_phalaenoides.xlsx
+++ b/biology/Zoologie/Drepanepteryx_phalaenoides/Drepanepteryx_phalaenoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drepanepteryx phalaenoides est une espèce d'insectes névroptères de la famille des Hemerobiidae.
 Ce névroptère vole d'avril à septembre dans les bois clairs aux sous-bois bien fournis. Sa longueur, de la tête à l'extrémité pointue des ailes, est d'environ 16 mm, son envergure varie de 22 à 32 mm. L'arrière des ailes présente une échancrure caractéristique. Très mimétique au repos, il ressemble à une petite feuille morte.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Région paléarctique.
 Sur les autres projets Wikimedia :
